--- a/data/trans_bre/P23_DUKE_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,31</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>-12,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>171,26%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-14,79%</t>
+          <t>-4,79%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,17%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-15,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 7,26</t>
+          <t>-16,09; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 10,31</t>
+          <t>-13,61; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 13,14</t>
+          <t>-7,65; 15,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,64; -1,71</t>
+          <t>-9,78; 11,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,46; 99,5</t>
+          <t>-16,02; 1,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 176,04</t>
+          <t>-23,26; -2,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1085,02</t>
+          <t>-18,54; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,99; -2,13</t>
+          <t>-16,27; 9,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 25,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 14,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 1,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-25,95; -2,74</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,02%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 12,0</t>
+          <t>-0,63; 21,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 8,87</t>
+          <t>-1,5; 12,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 2,77</t>
+          <t>-5,23; 10,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 13,84</t>
+          <t>-10,55; 8,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 184,51</t>
+          <t>-5,91; 17,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,71; 199,31</t>
+          <t>-7,12; 14,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,66; 24,32</t>
+          <t>-0,79; 30,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 19,81</t>
+          <t>-1,76; 15,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 13,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 10,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 24,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 18,79</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,3%</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 3,68</t>
+          <t>-5,61; 12,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 1,12</t>
+          <t>-5,13; 5,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 5,06</t>
+          <t>-6,85; 2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 12,07</t>
+          <t>-3,86; 13,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 24,46</t>
+          <t>3,26; 15,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 9,87</t>
+          <t>-8,41; 4,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 33,83</t>
+          <t>-6,15; 15,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 15,35</t>
+          <t>-5,53; 6,58</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 3,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 17,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 19,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 5,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,46%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 10,38</t>
+          <t>-3,33; 10,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 6,8</t>
+          <t>-0,88; 9,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 13,18</t>
+          <t>3,81; 14,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 2,67</t>
+          <t>-5,06; 4,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 83,97</t>
+          <t>-6,2; 3,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 34,65</t>
+          <t>-7,15; 4,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 69,67</t>
+          <t>-3,77; 13,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 2,96</t>
+          <t>-0,92; 11,5</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 17,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 5,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 3,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 5,04</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,69%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 18,27</t>
+          <t>-2,25; 14,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 8,94</t>
+          <t>-2,39; 12,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 13,78</t>
+          <t>-7,75; 5,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 3,72</t>
+          <t>-6,18; 8,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 173,29</t>
+          <t>-10,01; 3,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,9; 67,28</t>
+          <t>-5,15; 8,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 102,25</t>
+          <t>-2,4; 19,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 4,49</t>
+          <t>-2,72; 16,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 6,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 9,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 4,06</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 9,74</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,41%</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-3,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,09%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-6,52%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,88%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 11,34</t>
+          <t>-13,51; 6,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 1,7</t>
+          <t>-11,55; 9,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 24,61</t>
+          <t>-14,68; 8,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 8,1</t>
+          <t>-15,71; 3,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 93,36</t>
+          <t>-13,05; 9,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 12,76</t>
+          <t>-19,81; -1,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 186,48</t>
+          <t>-15,98; 9,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 10,28</t>
+          <t>-13,0; 13,61</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,49; 12,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-16,63; 4,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 12,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; -1,73</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,88%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,28</t>
+          <t>-2,26; 5,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,62</t>
+          <t>-1,59; 4,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 6,68</t>
+          <t>-1,73; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,63</t>
+          <t>-3,44; 3,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 38,59</t>
+          <t>-3,27; 3,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 19,04</t>
+          <t>-6,62; 0,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 44,18</t>
+          <t>-2,66; 6,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 1,91</t>
+          <t>-1,8; 5,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 6,07</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 3,93</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 4,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 0,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
